--- a/fhir/ig/iq/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/iq/ValueSet-PueblosOriginariosVS.xlsx
@@ -48,19 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:55:58-03:00</t>
+    <t>2023-01-15</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/iq/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/iq/ValueSet-PueblosOriginariosVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
